--- a/element_infos_datas/element_infos.xlsx
+++ b/element_infos_datas/element_infos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\repositories\PO_UI_Test_Framework\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482AA0B5-D8E3-4119-B49C-0BFC6D384221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0BD80-BC35-47D7-9D83-79AC1BC09C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="45" windowWidth="15630" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="900" windowWidth="14865" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="main_page" sheetId="2" r:id="rId3"/>
+    <sheet name="main_page" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>username_inputbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,71 @@
   </si>
   <si>
     <t>//input[@name="password"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_name
+元素名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzone_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username_showspan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class="user-name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="project"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="product"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="my"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//h1[@id="companyname"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">companyname_showbox  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,6 +573,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C7624-2013-41DF-8210-6E93B40787C1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7FF802-3748-4CFC-9BC5-EF73097CCE10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F4EAEA-C16C-47DA-9026-4227CABEAF4E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -519,19 +726,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C7624-2013-41DF-8210-6E93B40787C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/element_infos_datas/element_infos.xlsx
+++ b/element_infos_datas/element_infos.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\repositories\PO_UI_Test_Framework\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0BD80-BC35-47D7-9D83-79AC1BC09C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AA727-39BA-42AE-9460-CA6CFD1643A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="900" windowWidth="14865" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="main_page" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="add_product_page" sheetId="4" r:id="rId3"/>
+    <sheet name="add_project_page" sheetId="5" r:id="rId4"/>
+    <sheet name="project_page" sheetId="3" r:id="rId5"/>
+    <sheet name="project_team_managemet" sheetId="6" r:id="rId6"/>
+    <sheet name="organization_page" sheetId="7" r:id="rId7"/>
+    <sheet name="edit_company_page" sheetId="8" r:id="rId8"/>
+    <sheet name="create_depts_page" sheetId="9" r:id="rId9"/>
+    <sheet name="delete_depts_page" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
   <si>
     <t>username_inputbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>元素变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password__inputbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,6 +157,504 @@
   </si>
   <si>
     <t xml:space="preserve">companyname_showbox  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代号输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问控制选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布负责人下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试负责人下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品负责人下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品线下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加产品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_title_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_create_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/a[@href="/zentao/product-create.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="code"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qd_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@id="type"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe_locator_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//iframe[@class="ke-edit-iframe"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe_id_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_control_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="aclopen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="line_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="PO_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="QD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="RD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_description_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布负责人下拉弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试负责人下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品负责人下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品线下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="line_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="PO_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="QD_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="RD_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qd_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/a[@href="/zentao/project-create.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_create_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_title_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加项目按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_date_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="begin"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="end"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="team"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_title_inputbox</t>
+  </si>
+  <si>
+    <t>开始日期输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至日期输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队名称输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联产品下拉弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联产品下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="products0_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="products0_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_description_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body[@class="article-content"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related_product_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代号输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_type_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_manage_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@onclick="deleteItem(this)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="team"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受限用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下拉弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname_dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//div[@class="btn-toolbar pull-right"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="limited[%d]%s"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]/div/ul/li[@data-option-array-index="%d"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[@class="addedItem"][last()]/td[@class="c-actions text-center"]/a[@onclick="addItem(this)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company/"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company-view.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@id="editCompany"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name_iuputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe-triggerModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browse_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company-browse.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="depts[]"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depts_inoutbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="dept"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-idx="1"]/div/a[@data-type="delete"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +677,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,11 +725,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,83 +1019,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -572,122 +1119,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A50E53-E69D-432D-A546-F7B65B2FA111}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C7624-2013-41DF-8210-6E93B40787C1}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
@@ -700,29 +1352,1135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7FF802-3748-4CFC-9BC5-EF73097CCE10}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42.75">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76292F7D-6AF0-4AC8-8569-3F9D82527769}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42.75">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F4EAEA-C16C-47DA-9026-4227CABEAF4E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42.75">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F4EAEA-C16C-47DA-9026-4227CABEAF4E}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16440E39-622C-47C2-BDD9-718AB06438DE}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="84.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="D9" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FF75D5-1F95-4929-9A04-B1C014E71192}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="D6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3698D-5DF2-40DF-A55D-88B3C459D953}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FBF20B-C14C-46B1-BDBC-4B7F54B06A87}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/element_infos_datas/element_infos.xlsx
+++ b/element_infos_datas/element_infos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\repositories\PO_UI_Test_Framework\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AA727-39BA-42AE-9460-CA6CFD1643A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F766FF4-99C6-4B39-B1C7-52EBE0A76921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="main_page" sheetId="2" r:id="rId2"/>
-    <sheet name="add_product_page" sheetId="4" r:id="rId3"/>
-    <sheet name="add_project_page" sheetId="5" r:id="rId4"/>
-    <sheet name="project_page" sheetId="3" r:id="rId5"/>
-    <sheet name="project_team_managemet" sheetId="6" r:id="rId6"/>
-    <sheet name="organization_page" sheetId="7" r:id="rId7"/>
-    <sheet name="edit_company_page" sheetId="8" r:id="rId8"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
+    <sheet name="product" sheetId="4" r:id="rId3"/>
+    <sheet name="myzone" sheetId="5" r:id="rId4"/>
+    <sheet name="待删除 project_page" sheetId="3" r:id="rId5"/>
+    <sheet name="待删除project_team_managemet" sheetId="6" r:id="rId6"/>
+    <sheet name="待删除organization_page" sheetId="7" r:id="rId7"/>
+    <sheet name="待删除edit_company_page" sheetId="8" r:id="rId8"/>
     <sheet name="create_depts_page" sheetId="9" r:id="rId9"/>
     <sheet name="delete_depts_page" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="171">
   <si>
     <t>username_inputbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">companyname_showbox  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品名称输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,397 +260,455 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iframe_id_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_control_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="aclopen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="line_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="PO_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="QD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="RD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_description_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布负责人下拉弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试负责人下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品负责人下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品线下拉弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="line_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="PO_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="QD_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="RD_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qd_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd_chosen_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_manage_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@onclick="deleteItem(this)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="team"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受限用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下拉弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname_dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//div[@class="btn-toolbar pull-right"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="limited[%d]%s"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]/div/ul/li[@data-option-array-index="%d"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[@class="addedItem"][last()]/td[@class="c-actions text-center"]/a[@onclick="addItem(this)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company/"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company-view.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@id="editCompany"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name_iuputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe-triggerModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browse_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/company-browse.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="depts[]"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depts_inoutbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="dept"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-idx="1"]/div/a[@data-type="delete"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>timeout
+超时时间（默认5S）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyname_showbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_product_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//iframe[@class="ke-edit-iframe"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iframe_id_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_control_chosen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="aclopen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//button[@id="submit"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="line_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="PO_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="QD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="RD_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_description_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布负责人下拉弹框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试负责人下拉弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品负责人下拉弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品线下拉弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="line_chosen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="PO_chosen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="QD_chosen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="RD_chosen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_chosen_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po_chosen_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qd_chosen_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rd_chosen_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div/a[@href="/zentao/project-create.html"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_create_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_title_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加项目按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_code_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_date_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="begin"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="end"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_date_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="team"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_title_inputbox</t>
-  </si>
-  <si>
-    <t>开始日期输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截至日期输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队名称输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目类型下拉选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联产品下拉弹框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联产品下拉选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="products0_chosen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id="products0_chosen"]/div/ul/li[@data-option-array-index="1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_description_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//body[@class="article-content"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>related_product_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>related_product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目代号输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_type_select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_manage_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@onclick="deleteItem(this)"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li[@data-id="team"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受限用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户下拉选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户下拉弹框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realname_dropdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realname_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//div[@class="btn-toolbar pull-right"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="limited[%d]%s"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//select[@onchange="setRole(this.value, %d)"]/../div[1]/div/ul/li[@data-option-array-index="%d"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[@class="addedItem"][last()]/td[@class="c-actions text-center"]/a[@onclick="addItem(this)"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao/company/"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao/company-view.html"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@id="editCompany"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_name_iuputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iframe-triggerModal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>browse_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao/company-browse.html"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@id="depts[]"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depts_inoutbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li[@data-id="dept"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li[@data-idx="1"]/div/a[@data-type="delete"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称输入框</t>
+    <t>iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>档案</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_change_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my/"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-task.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-bug.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-testtask.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-story.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-project.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-dynamic.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-profile.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-changepassword.html?onlybody=yes"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-managecontacts.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-calendar.html"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +752,21 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -725,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -739,6 +808,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,97 +1099,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="1" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="12" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="42.75">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1154,27 +1246,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1195,15 +1287,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C7624-2013-41DF-8210-6E93B40787C1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1211,51 +1304,48 @@
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="42.75">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1263,16 +1353,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1280,16 +1370,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1297,33 +1387,33 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1331,17 +1421,20 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1352,308 +1445,317 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7FF802-3748-4CFC-9BC5-EF73097CCE10}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="32.375" customWidth="1"/>
+    <col min="1" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="42.75">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1665,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76292F7D-6AF0-4AC8-8569-3F9D82527769}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1677,246 +1779,232 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="83.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="57">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F4EAEA-C16C-47DA-9026-4227CABEAF4E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1960,27 +2048,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2027,27 +2115,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2055,16 +2143,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2072,16 +2160,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2089,16 +2177,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2106,16 +2194,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2123,10 +2211,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -2140,16 +2228,16 @@
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2200,27 +2288,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2228,16 +2316,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2245,16 +2333,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2277,7 +2365,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2307,27 +2395,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2335,16 +2423,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2353,15 +2441,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2376,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -2427,27 +2515,27 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2455,10 +2543,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>

--- a/element_infos_datas/element_infos.xlsx
+++ b/element_infos_datas/element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\repositories\PO_UI_Test_Framework\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F766FF4-99C6-4B39-B1C7-52EBE0A76921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA5B478-2698-44C8-A5EE-D24E38414E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="4410" windowWidth="18075" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//input[@name="account"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//button[@id="submit"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//span[@class="user-name"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//li[@data-id="project"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +701,14 @@
   </si>
   <si>
     <t>//nav[@id="subNavbar"]/ul/li/a[@href="/zentao/my-calendar.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//ul[@id="userNav"]/li/a/span[@class="user-name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@name="account"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1121,19 +1121,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1153,15 +1153,15 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1170,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1187,18 +1187,18 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -1234,39 +1234,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1314,123 +1314,123 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1467,19 +1467,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1487,275 +1487,275 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1789,19 +1789,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1809,194 +1809,194 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2036,39 +2036,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2103,39 +2103,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2143,16 +2143,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2160,16 +2160,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2194,16 +2194,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2211,16 +2211,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2276,39 +2276,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2383,39 +2383,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -2441,21 +2441,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -2503,39 +2503,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>3</v>
